--- a/E3_starwars.xlsx
+++ b/E3_starwars.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorelle\workspace2\excel\individual-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorelle\workspace2\excel\Practice-exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F7077-3143-434C-9FB8-72EA5A698782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B7252-3C35-4FFF-B7C6-9652C8BB06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3720" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="Answer Key" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">starwars!$A$1:$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1012,11 +1015,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1737,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q88"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1750,7 +1755,7 @@
     <col min="13" max="13" width="10.8984375" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="94.296875" customWidth="1"/>
-    <col min="17" max="17" width="15.09765625" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1855,7 @@
       </c>
       <c r="M2" s="4">
         <f ca="1">EDATE(TODAY(),-12*K2)</f>
-        <v>39095</v>
+        <v>39097</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -1874,22 +1879,22 @@
         <v>167</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3/100</f>
+        <f>B3/100</f>
         <v>1.67</v>
       </c>
       <c r="D3">
         <v>75</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">IF(OR(C3="NA",D3="NA"),0,(D3)/(C3^2))</f>
+        <f>IF(OR(C3="NA",D3="NA"),0,(D3)/(C3^2))</f>
         <v>26.892323138154829</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F65" si="2">RANK(E3,$E$2:$E$88)</f>
+        <f t="shared" ref="F3:F66" si="0">RANK(E3,$E$2:$E$88)</f>
         <v>14</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="3">E3-$E$5</f>
+        <f>E3-$E$5</f>
         <v>-6.4377425416804783</v>
       </c>
       <c r="H3" t="s">
@@ -1905,12 +1910,12 @@
         <v>112</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="4">K3*365</f>
+        <f>K3*365</f>
         <v>40880</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M66" ca="1" si="5">EDATE(TODAY(),-12*K3)</f>
-        <v>5127</v>
+        <f ca="1">EDATE(TODAY(),-12*K3)</f>
+        <v>5129</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1922,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="6">IFERROR(LEFT(P3, FIND(",",P3)-1),P3)</f>
+        <f>IFERROR(LEFT(P3, FIND(",",P3)-1),P3)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -1934,22 +1939,22 @@
         <v>96</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>B4/100</f>
         <v>0.96</v>
       </c>
       <c r="D4">
         <v>32</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C4="NA",D4="NA"),0,(D4)/(C4^2))</f>
         <v>34.722222222222221</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f>E4-$E$5</f>
         <v>1.392156542386914</v>
       </c>
       <c r="H4" t="s">
@@ -1965,12 +1970,12 @@
         <v>33</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f>K4*365</f>
         <v>12045</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>33982</v>
+        <f ca="1">EDATE(TODAY(),-12*K4)</f>
+        <v>33984</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1982,7 +1987,7 @@
         <v>27</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P4, FIND(",",P4)-1),P4)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -1994,22 +1999,22 @@
         <v>202</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>B5/100</f>
         <v>2.02</v>
       </c>
       <c r="D5">
         <v>136</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C5="NA",D5="NA"),0,(D5)/(C5^2))</f>
         <v>33.330065679835307</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f>E5-$E$5</f>
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -2025,12 +2030,12 @@
         <v>41.9</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f>K5*365</f>
         <v>15293.5</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>30754</v>
+        <f ca="1">EDATE(TODAY(),-12*K5)</f>
+        <v>30756</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -2042,7 +2047,7 @@
         <v>31</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P5, FIND(",",P5)-1),P5)</f>
         <v xml:space="preserve">Revenge of the Sith </v>
       </c>
     </row>
@@ -2054,22 +2059,22 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6/100</f>
         <v>1.5</v>
       </c>
       <c r="D6">
         <v>49</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C6="NA",D6="NA"),0,(D6)/(C6^2))</f>
         <v>21.777777777777779</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f>E6-$E$5</f>
         <v>-11.552287902057529</v>
       </c>
       <c r="H6" t="s">
@@ -2085,12 +2090,12 @@
         <v>19</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f>K6*365</f>
         <v>6935</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>39095</v>
+        <f ca="1">EDATE(TODAY(),-12*K6)</f>
+        <v>39097</v>
       </c>
       <c r="N6" t="s">
         <v>35</v>
@@ -2102,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P6, FIND(",",P6)-1),P6)</f>
         <v xml:space="preserve">Revenge of the Sith </v>
       </c>
     </row>
@@ -2114,22 +2119,22 @@
         <v>178</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>B7/100</f>
         <v>1.78</v>
       </c>
       <c r="D7">
         <v>120</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C7="NA",D7="NA"),0,(D7)/(C7^2))</f>
         <v>37.874005807347558</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f>E7-$E$5</f>
         <v>4.5439401275122506</v>
       </c>
       <c r="H7" t="s">
@@ -2145,12 +2150,12 @@
         <v>52</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f>K7*365</f>
         <v>18980</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>27042</v>
+        <f ca="1">EDATE(TODAY(),-12*K7)</f>
+        <v>27044</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -2162,7 +2167,7 @@
         <v>39</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P7, FIND(",",P7)-1),P7)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -2174,22 +2179,22 @@
         <v>165</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>B8/100</f>
         <v>1.65</v>
       </c>
       <c r="D8">
         <v>75</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C8="NA",D8="NA"),0,(D8)/(C8^2))</f>
         <v>27.548209366391188</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f>E8-$E$5</f>
         <v>-5.7818563134441199</v>
       </c>
       <c r="H8" t="s">
@@ -2205,12 +2210,12 @@
         <v>47</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f>K8*365</f>
         <v>17155</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>28868</v>
+        <f ca="1">EDATE(TODAY(),-12*K8)</f>
+        <v>28870</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -2222,7 +2227,7 @@
         <v>39</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P8, FIND(",",P8)-1),P8)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -2234,22 +2239,22 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>B9/100</f>
         <v>0.97</v>
       </c>
       <c r="D9">
         <v>32</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C9="NA",D9="NA"),0,(D9)/(C9^2))</f>
         <v>34.009990434690195</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f>E9-$E$5</f>
         <v>0.67992475485488768</v>
       </c>
       <c r="H9" t="s">
@@ -2280,7 +2285,7 @@
         <v>43</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P9, FIND(",",P9)-1),P9)</f>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2292,22 +2297,22 @@
         <v>183</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>B10/100</f>
         <v>1.83</v>
       </c>
       <c r="D10">
         <v>84</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C10="NA",D10="NA"),0,(D10)/(C10^2))</f>
         <v>25.082863029651524</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f>E10-$E$5</f>
         <v>-8.2472026501837838</v>
       </c>
       <c r="H10" t="s">
@@ -2323,12 +2328,12 @@
         <v>24</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f>K10*365</f>
         <v>8760</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>37269</v>
+        <f ca="1">EDATE(TODAY(),-12*K10)</f>
+        <v>37271</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -2340,7 +2345,7 @@
         <v>43</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P10, FIND(",",P10)-1),P10)</f>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2352,22 +2357,22 @@
         <v>182</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>B11/100</f>
         <v>1.82</v>
       </c>
       <c r="D11">
         <v>77</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C11="NA",D11="NA"),0,(D11)/(C11^2))</f>
         <v>23.245984784446321</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f>E11-$E$5</f>
         <v>-10.084080895388986</v>
       </c>
       <c r="H11" t="s">
@@ -2383,12 +2388,12 @@
         <v>57</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f>K11*365</f>
         <v>20805</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>25216</v>
+        <f ca="1">EDATE(TODAY(),-12*K11)</f>
+        <v>25218</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
@@ -2400,7 +2405,7 @@
         <v>22</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P11, FIND(",",P11)-1),P11)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -2412,22 +2417,22 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>B12/100</f>
         <v>1.88</v>
       </c>
       <c r="D12">
         <v>84</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C12="NA",D12="NA"),0,(D12)/(C12^2))</f>
         <v>23.766410140334994</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f>E12-$E$5</f>
         <v>-9.5636555395003136</v>
       </c>
       <c r="H12" t="s">
@@ -2443,12 +2448,12 @@
         <v>41.9</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f>K12*365</f>
         <v>15293.5</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>30754</v>
+        <f ca="1">EDATE(TODAY(),-12*K12)</f>
+        <v>30756</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -2460,7 +2465,7 @@
         <v>51</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P12, FIND(",",P12)-1),P12)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -2472,18 +2477,22 @@
         <v>180</v>
       </c>
       <c r="C13">
+        <f>B13/100</f>
+        <v>1.8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f>IF(OR(C13="NA",D13="NA"),0,(D13)/(C13^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f>E13-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H13" t="s">
@@ -2499,12 +2508,12 @@
         <v>64</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f>K13*365</f>
         <v>23360</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>22659</v>
+        <f ca="1">EDATE(TODAY(),-12*K13)</f>
+        <v>22661</v>
       </c>
       <c r="N13" t="s">
         <v>54</v>
@@ -2516,7 +2525,7 @@
         <v>55</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P13, FIND(",",P13)-1),P13)</f>
         <v xml:space="preserve">Revenge of the Sith </v>
       </c>
     </row>
@@ -2528,22 +2537,22 @@
         <v>228</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>B14/100</f>
         <v>2.2799999999999998</v>
       </c>
       <c r="D14">
         <v>112</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C14="NA",D14="NA"),0,(D14)/(C14^2))</f>
         <v>21.545090797168363</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f>E14-$E$5</f>
         <v>-11.784974882666944</v>
       </c>
       <c r="H14" t="s">
@@ -2559,11 +2568,11 @@
         <v>200</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f>K14*365</f>
         <v>73000</v>
       </c>
       <c r="M14" s="4" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">EDATE(TODAY(),-12*K14)</f>
         <v>#NUM!</v>
       </c>
       <c r="N14" t="s">
@@ -2576,7 +2585,7 @@
         <v>36</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P14, FIND(",",P14)-1),P14)</f>
         <v xml:space="preserve">Revenge of the Sith </v>
       </c>
     </row>
@@ -2588,22 +2597,22 @@
         <v>180</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>B15/100</f>
         <v>1.8</v>
       </c>
       <c r="D15">
         <v>80</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C15="NA",D15="NA"),0,(D15)/(C15^2))</f>
         <v>24.691358024691358</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f>E15-$E$5</f>
         <v>-8.6387076551439499</v>
       </c>
       <c r="H15" t="s">
@@ -2619,12 +2628,12 @@
         <v>29</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f>K15*365</f>
         <v>10585</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>35443</v>
+        <f ca="1">EDATE(TODAY(),-12*K15)</f>
+        <v>35445</v>
       </c>
       <c r="N15" t="s">
         <v>61</v>
@@ -2636,7 +2645,7 @@
         <v>62</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P15, FIND(",",P15)-1),P15)</f>
         <v xml:space="preserve">Return of the Jedi </v>
       </c>
     </row>
@@ -2648,22 +2657,22 @@
         <v>173</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>B16/100</f>
         <v>1.73</v>
       </c>
       <c r="D16">
         <v>74</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C16="NA",D16="NA"),0,(D16)/(C16^2))</f>
         <v>24.725182932941294</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f>E16-$E$5</f>
         <v>-8.6048827468940132</v>
       </c>
       <c r="H16" t="s">
@@ -2679,12 +2688,12 @@
         <v>44</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f>K16*365</f>
         <v>16060</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>29964</v>
+        <f ca="1">EDATE(TODAY(),-12*K16)</f>
+        <v>29966</v>
       </c>
       <c r="N16" t="s">
         <v>65</v>
@@ -2696,7 +2705,7 @@
         <v>43</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P16, FIND(",",P16)-1),P16)</f>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2708,22 +2717,22 @@
         <v>175</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>B17/100</f>
         <v>1.75</v>
       </c>
       <c r="D17">
         <v>1358</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C17="NA",D17="NA"),0,(D17)/(C17^2))</f>
         <v>443.42857142857144</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f>E17-$E$5</f>
         <v>410.09850574873616</v>
       </c>
       <c r="H17" t="s">
@@ -2739,7 +2748,7 @@
         <v>600</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f>K17*365</f>
         <v>219000</v>
       </c>
       <c r="M17" s="5" t="e">
@@ -2756,7 +2765,7 @@
         <v>72</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P17, FIND(",",P17)-1),P17)</f>
         <v xml:space="preserve">The Phantom Menace </v>
       </c>
     </row>
@@ -2768,22 +2777,22 @@
         <v>170</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>B18/100</f>
         <v>1.7</v>
       </c>
       <c r="D18">
         <v>77</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C18="NA",D18="NA"),0,(D18)/(C18^2))</f>
         <v>26.643598615916957</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f>E18-$E$5</f>
         <v>-6.6864670639183501</v>
       </c>
       <c r="H18" t="s">
@@ -2799,12 +2808,12 @@
         <v>21</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f>K18*365</f>
         <v>7665</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>38365</v>
+        <f ca="1">EDATE(TODAY(),-12*K18)</f>
+        <v>38367</v>
       </c>
       <c r="N18" t="s">
         <v>61</v>
@@ -2816,7 +2825,7 @@
         <v>75</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P18, FIND(",",P18)-1),P18)</f>
         <v xml:space="preserve">Return of the Jedi </v>
       </c>
     </row>
@@ -2828,22 +2837,22 @@
         <v>180</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>B19/100</f>
         <v>1.8</v>
       </c>
       <c r="D19">
         <v>110</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C19="NA",D19="NA"),0,(D19)/(C19^2))</f>
         <v>33.950617283950614</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f>E19-$E$5</f>
         <v>0.62055160411530608</v>
       </c>
       <c r="H19" t="s">
@@ -2874,7 +2883,7 @@
         <v>43</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P19, FIND(",",P19)-1),P19)</f>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2886,22 +2895,22 @@
         <v>66</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>B20/100</f>
         <v>0.66</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C20="NA",D20="NA"),0,(D20)/(C20^2))</f>
         <v>39.026629935720841</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f>E20-$E$5</f>
         <v>5.6965642558855336</v>
       </c>
       <c r="H20" t="s">
@@ -2917,11 +2926,11 @@
         <v>896</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f>K20*365</f>
         <v>327040</v>
       </c>
       <c r="M20" s="5" t="e">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">EDATE(TODAY(),-12*K20)</f>
         <v>#NUM!</v>
       </c>
       <c r="N20" t="s">
@@ -2934,7 +2943,7 @@
         <v>80</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P20, FIND(",",P20)-1),P20)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -2946,22 +2955,22 @@
         <v>170</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>B21/100</f>
         <v>1.7</v>
       </c>
       <c r="D21">
         <v>75</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C21="NA",D21="NA"),0,(D21)/(C21^2))</f>
         <v>25.95155709342561</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f>E21-$E$5</f>
         <v>-7.3785085864096978</v>
       </c>
       <c r="H21" t="s">
@@ -2977,12 +2986,12 @@
         <v>82</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f>K21*365</f>
         <v>29930</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>16084</v>
+        <f ca="1">EDATE(TODAY(),-12*K21)</f>
+        <v>16086</v>
       </c>
       <c r="N21" t="s">
         <v>26</v>
@@ -2994,7 +3003,7 @@
         <v>84</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P21, FIND(",",P21)-1),P21)</f>
         <v xml:space="preserve"> Attack of the Clones </v>
       </c>
     </row>
@@ -3006,22 +3015,22 @@
         <v>183</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>B22/100</f>
         <v>1.83</v>
       </c>
       <c r="D22">
         <v>78.2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C22="NA",D22="NA"),0,(D22)/(C22^2))</f>
         <v>23.350951058556539</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f>E22-$E$5</f>
         <v>-9.979114621278768</v>
       </c>
       <c r="H22" t="s">
@@ -3037,12 +3046,12 @@
         <v>31.5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f>K22*365</f>
         <v>11497.5</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>34528</v>
+        <f ca="1">EDATE(TODAY(),-12*K22)</f>
+        <v>34530</v>
       </c>
       <c r="N22" t="s">
         <v>86</v>
@@ -3054,7 +3063,7 @@
         <v>87</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P22, FIND(",",P22)-1),P22)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -3066,22 +3075,22 @@
         <v>200</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>B23/100</f>
         <v>2</v>
       </c>
       <c r="D23">
         <v>140</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C23="NA",D23="NA"),0,(D23)/(C23^2))</f>
         <v>35</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f>E23-$E$5</f>
         <v>1.6699343201646926</v>
       </c>
       <c r="H23" t="s">
@@ -3097,12 +3106,12 @@
         <v>15</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f>K23*365</f>
         <v>5475</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>40556</v>
+        <f ca="1">EDATE(TODAY(),-12*K23)</f>
+        <v>40558</v>
       </c>
       <c r="N23" t="s">
         <v>18</v>
@@ -3114,7 +3123,7 @@
         <v>90</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P23, FIND(",",P23)-1),P23)</f>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3126,22 +3135,22 @@
         <v>190</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>B24/100</f>
         <v>1.9</v>
       </c>
       <c r="D24">
         <v>113</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C24="NA",D24="NA"),0,(D24)/(C24^2))</f>
         <v>31.301939058171747</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f>E24-$E$5</f>
         <v>-2.0281266216635601</v>
       </c>
       <c r="H24" t="s">
@@ -3157,12 +3166,12 @@
         <v>53</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f>K24*365</f>
         <v>19345</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>26677</v>
+        <f ca="1">EDATE(TODAY(),-12*K24)</f>
+        <v>26679</v>
       </c>
       <c r="N24" t="s">
         <v>92</v>
@@ -3174,7 +3183,7 @@
         <v>90</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P24, FIND(",",P24)-1),P24)</f>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3186,22 +3195,22 @@
         <v>177</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>B25/100</f>
         <v>1.77</v>
       </c>
       <c r="D25">
         <v>79</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C25="NA",D25="NA"),0,(D25)/(C25^2))</f>
         <v>25.216253311628201</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f>E25-$E$5</f>
         <v>-8.1138123682071068</v>
       </c>
       <c r="H25" t="s">
@@ -3217,12 +3226,12 @@
         <v>31</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f>K25*365</f>
         <v>11315</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>34712</v>
+        <f ca="1">EDATE(TODAY(),-12*K25)</f>
+        <v>34714</v>
       </c>
       <c r="N25" t="s">
         <v>96</v>
@@ -3234,7 +3243,7 @@
         <v>97</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P25, FIND(",",P25)-1),P25)</f>
         <v xml:space="preserve">Return of the Jedi </v>
       </c>
     </row>
@@ -3246,22 +3255,22 @@
         <v>175</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>B26/100</f>
         <v>1.75</v>
       </c>
       <c r="D26">
         <v>79</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C26="NA",D26="NA"),0,(D26)/(C26^2))</f>
         <v>25.795918367346939</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f>E26-$E$5</f>
         <v>-7.5341473124883684</v>
       </c>
       <c r="H26" t="s">
@@ -3277,12 +3286,12 @@
         <v>37</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f>K26*365</f>
         <v>13505</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>32521</v>
+        <f ca="1">EDATE(TODAY(),-12*K26)</f>
+        <v>32523</v>
       </c>
       <c r="N26" t="s">
         <v>99</v>
@@ -3294,7 +3303,7 @@
         <v>90</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P26, FIND(",",P26)-1),P26)</f>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3306,22 +3315,22 @@
         <v>180</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>B27/100</f>
         <v>1.8</v>
       </c>
       <c r="D27">
         <v>83</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C27="NA",D27="NA"),0,(D27)/(C27^2))</f>
         <v>25.617283950617281</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f>E27-$E$5</f>
         <v>-7.7127817292180261</v>
       </c>
       <c r="H27" t="s">
@@ -3337,12 +3346,12 @@
         <v>41</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f>K27*365</f>
         <v>14965</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>31060</v>
+        <f ca="1">EDATE(TODAY(),-12*K27)</f>
+        <v>31062</v>
       </c>
       <c r="N27" t="s">
         <v>102</v>
@@ -3354,7 +3363,7 @@
         <v>104</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P27, FIND(",",P27)-1),P27)</f>
         <v xml:space="preserve">Return of the Jedi </v>
       </c>
     </row>
@@ -3366,18 +3375,22 @@
         <v>150</v>
       </c>
       <c r="C28">
+        <f>B28/100</f>
+        <v>1.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <f>IF(OR(C28="NA",D28="NA"),0,(D28)/(C28^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f>E28-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H28" t="s">
@@ -3393,12 +3406,12 @@
         <v>48</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f>K28*365</f>
         <v>17520</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>28503</v>
+        <f ca="1">EDATE(TODAY(),-12*K28)</f>
+        <v>28505</v>
       </c>
       <c r="N28" t="s">
         <v>107</v>
@@ -3410,7 +3423,7 @@
         <v>108</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P28, FIND(",",P28)-1),P28)</f>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3425,11 +3438,15 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C29="NA",D29="NA"),0,(D29)/(C29^2))</f>
         <v>0</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f>E29-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H29" t="s">
@@ -3460,7 +3477,7 @@
         <v>108</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P29, FIND(",",P29)-1),P29)</f>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3472,22 +3489,22 @@
         <v>88</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>B30/100</f>
         <v>0.88</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C30="NA",D30="NA"),0,(D30)/(C30^2))</f>
         <v>25.826446280991735</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f>E30-$E$5</f>
         <v>-7.503619398843572</v>
       </c>
       <c r="H30" t="s">
@@ -3503,12 +3520,12 @@
         <v>8</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f>K30*365</f>
         <v>2920</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>43113</v>
+        <f ca="1">EDATE(TODAY(),-12*K30)</f>
+        <v>43115</v>
       </c>
       <c r="N30" t="s">
         <v>111</v>
@@ -3520,7 +3537,7 @@
         <v>108</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P30, FIND(",",P30)-1),P30)</f>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3532,22 +3549,22 @@
         <v>160</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>B31/100</f>
         <v>1.6</v>
       </c>
       <c r="D31">
         <v>68</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C31="NA",D31="NA"),0,(D31)/(C31^2))</f>
         <v>26.562499999999996</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f>E31-$E$5</f>
         <v>-6.767565679835311</v>
       </c>
       <c r="H31" t="s">
@@ -3578,7 +3595,7 @@
         <v>108</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P31, FIND(",",P31)-1),P31)</f>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3590,22 +3607,22 @@
         <v>193</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>B32/100</f>
         <v>1.93</v>
       </c>
       <c r="D32">
         <v>89</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C32="NA",D32="NA"),0,(D32)/(C32^2))</f>
         <v>23.893258879433006</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f>E32-$E$5</f>
         <v>-9.4368068004023016</v>
       </c>
       <c r="H32" t="s">
@@ -3621,12 +3638,12 @@
         <v>92</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f>K32*365</f>
         <v>33580</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12432</v>
+        <f ca="1">EDATE(TODAY(),-12*K32)</f>
+        <v>12434</v>
       </c>
       <c r="N32" t="s">
         <v>18</v>
@@ -3638,7 +3655,7 @@
         <v>117</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P32, FIND(",",P32)-1),P32)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3650,22 +3667,22 @@
         <v>191</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>B33/100</f>
         <v>1.91</v>
       </c>
       <c r="D33">
         <v>90</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C33="NA",D33="NA"),0,(D33)/(C33^2))</f>
         <v>24.670376360297141</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f>E33-$E$5</f>
         <v>-8.6596893195381668</v>
       </c>
       <c r="H33" t="s">
@@ -3696,7 +3713,7 @@
         <v>51</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P33, FIND(",",P33)-1),P33)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -3708,18 +3725,22 @@
         <v>170</v>
       </c>
       <c r="C34">
+        <f>B34/100</f>
+        <v>1.7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <f>IF(OR(C34="NA",D34="NA"),0,(D34)/(C34^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f>E34-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H34" t="s">
@@ -3735,12 +3756,12 @@
         <v>91</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f>K34*365</f>
         <v>33215</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12797</v>
+        <f ca="1">EDATE(TODAY(),-12*K34)</f>
+        <v>12799</v>
       </c>
       <c r="N34" t="s">
         <v>123</v>
@@ -3752,7 +3773,7 @@
         <v>117</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P34, FIND(",",P34)-1),P34)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3764,22 +3785,22 @@
         <v>196</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>B35/100</f>
         <v>1.96</v>
       </c>
       <c r="D35">
         <v>66</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C35="NA",D35="NA"),0,(D35)/(C35^2))</f>
         <v>17.180341524364849</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f>E35-$E$5</f>
         <v>-16.149724155470459</v>
       </c>
       <c r="H35" t="s">
@@ -3795,12 +3816,12 @@
         <v>52</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f>K35*365</f>
         <v>18980</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>27042</v>
+        <f ca="1">EDATE(TODAY(),-12*K35)</f>
+        <v>27044</v>
       </c>
       <c r="N35" t="s">
         <v>26</v>
@@ -3812,7 +3833,7 @@
         <v>126</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P35, FIND(",",P35)-1),P35)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -3824,22 +3845,22 @@
         <v>224</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>B36/100</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="D36">
         <v>82</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C36="NA",D36="NA"),0,(D36)/(C36^2))</f>
         <v>16.342474489795915</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f>E36-$E$5</f>
         <v>-16.987591190039392</v>
       </c>
       <c r="H36" t="s">
@@ -3870,7 +3891,7 @@
         <v>117</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P36, FIND(",",P36)-1),P36)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3882,18 +3903,22 @@
         <v>206</v>
       </c>
       <c r="C37">
+        <f>B37/100</f>
+        <v>2.06</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <f>IF(OR(C37="NA",D37="NA"),0,(D37)/(C37^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="0"/>
-        <v>2.06</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f>E37-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H37" t="s">
@@ -3924,7 +3949,7 @@
         <v>117</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P37, FIND(",",P37)-1),P37)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3936,18 +3961,22 @@
         <v>183</v>
       </c>
       <c r="C38">
+        <f>B38/100</f>
+        <v>1.83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <f>IF(OR(C38="NA",D38="NA"),0,(D38)/(C38^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="0"/>
-        <v>1.83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f>E38-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H38" t="s">
@@ -3978,7 +4007,7 @@
         <v>117</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P38, FIND(",",P38)-1),P38)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3990,18 +4019,22 @@
         <v>137</v>
       </c>
       <c r="C39">
+        <f>B39/100</f>
+        <v>1.37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <f>IF(OR(C39="NA",D39="NA"),0,(D39)/(C39^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="0"/>
-        <v>1.37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f>E39-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H39" t="s">
@@ -4032,7 +4065,7 @@
         <v>134</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P39, FIND(",",P39)-1),P39)</f>
         <v xml:space="preserve"> Attack of the Clones </v>
       </c>
     </row>
@@ -4044,22 +4077,22 @@
         <v>112</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f>B40/100</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="D40">
         <v>40</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C40="NA",D40="NA"),0,(D40)/(C40^2))</f>
         <v>31.887755102040813</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f>E40-$E$5</f>
         <v>-1.442310577794494</v>
       </c>
       <c r="H40" t="s">
@@ -4090,7 +4123,7 @@
         <v>117</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P40, FIND(",",P40)-1),P40)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4102,18 +4135,22 @@
         <v>183</v>
       </c>
       <c r="C41">
+        <f>B41/100</f>
+        <v>1.83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <f>IF(OR(C41="NA",D41="NA"),0,(D41)/(C41^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="0"/>
-        <v>1.83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f>E41-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H41" t="s">
@@ -4129,12 +4166,12 @@
         <v>62</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f>K41*365</f>
         <v>22630</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>23389</v>
+        <f ca="1">EDATE(TODAY(),-12*K41)</f>
+        <v>23391</v>
       </c>
       <c r="N41" t="s">
         <v>26</v>
@@ -4146,7 +4183,7 @@
         <v>117</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P41, FIND(",",P41)-1),P41)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4158,18 +4195,22 @@
         <v>163</v>
       </c>
       <c r="C42">
+        <f>B42/100</f>
+        <v>1.63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <f>IF(OR(C42="NA",D42="NA"),0,(D42)/(C42^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="0"/>
-        <v>1.63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f>E42-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H42" t="s">
@@ -4185,12 +4226,12 @@
         <v>72</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f>K42*365</f>
         <v>26280</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>19737</v>
+        <f ca="1">EDATE(TODAY(),-12*K42)</f>
+        <v>19739</v>
       </c>
       <c r="N42" t="s">
         <v>14</v>
@@ -4202,7 +4243,7 @@
         <v>134</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P42, FIND(",",P42)-1),P42)</f>
         <v xml:space="preserve"> Attack of the Clones </v>
       </c>
     </row>
@@ -4214,22 +4255,22 @@
         <v>175</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f>B43/100</f>
         <v>1.75</v>
       </c>
       <c r="D43">
         <v>80</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C43="NA",D43="NA"),0,(D43)/(C43^2))</f>
         <v>26.122448979591837</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f>E43-$E$5</f>
         <v>-7.2076167002434701</v>
       </c>
       <c r="H43" t="s">
@@ -4245,12 +4286,12 @@
         <v>54</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f>K43*365</f>
         <v>19710</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>26311</v>
+        <f ca="1">EDATE(TODAY(),-12*K43)</f>
+        <v>26313</v>
       </c>
       <c r="N43" t="s">
         <v>142</v>
@@ -4262,7 +4303,7 @@
         <v>117</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P43, FIND(",",P43)-1),P43)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4274,18 +4315,22 @@
         <v>180</v>
       </c>
       <c r="C44">
+        <f>B44/100</f>
+        <v>1.8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <f>IF(OR(C44="NA",D44="NA"),0,(D44)/(C44^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f>E44-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H44" t="s">
@@ -4316,7 +4361,7 @@
         <v>108</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P44, FIND(",",P44)-1),P44)</f>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -4328,22 +4373,22 @@
         <v>178</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f>B45/100</f>
         <v>1.78</v>
       </c>
       <c r="D45">
         <v>55</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C45="NA",D45="NA"),0,(D45)/(C45^2))</f>
         <v>17.35891932836763</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f>E45-$E$5</f>
         <v>-15.971146351467677</v>
       </c>
       <c r="H45" t="s">
@@ -4359,12 +4404,12 @@
         <v>48</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f>K45*365</f>
         <v>17520</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>28503</v>
+        <f ca="1">EDATE(TODAY(),-12*K45)</f>
+        <v>28505</v>
       </c>
       <c r="N45" t="s">
         <v>146</v>
@@ -4376,7 +4421,7 @@
         <v>149</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P45, FIND(",",P45)-1),P45)</f>
         <v xml:space="preserve"> Attack of the Clones </v>
       </c>
     </row>
@@ -4388,22 +4433,22 @@
         <v>94</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f>B46/100</f>
         <v>0.94</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C46="NA",D46="NA"),0,(D46)/(C46^2))</f>
         <v>50.928021729289277</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f>E46-$E$5</f>
         <v>17.59795604945397</v>
       </c>
       <c r="H46" t="s">
@@ -4434,7 +4479,7 @@
         <v>117</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P46, FIND(",",P46)-1),P46)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4446,18 +4491,22 @@
         <v>122</v>
       </c>
       <c r="C47">
+        <f>B47/100</f>
+        <v>1.22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <f>IF(OR(C47="NA",D47="NA"),0,(D47)/(C47^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="0"/>
-        <v>1.22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f>E47-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H47" t="s">
@@ -4488,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P47, FIND(",",P47)-1),P47)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4500,22 +4549,22 @@
         <v>163</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f>B48/100</f>
         <v>1.63</v>
       </c>
       <c r="D48">
         <v>65</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C48="NA",D48="NA"),0,(D48)/(C48^2))</f>
         <v>24.464601603372351</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f>E48-$E$5</f>
         <v>-8.8654640764629562</v>
       </c>
       <c r="H48" t="s">
@@ -4546,7 +4595,7 @@
         <v>117</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P48, FIND(",",P48)-1),P48)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4558,22 +4607,22 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f>B49/100</f>
         <v>1.88</v>
       </c>
       <c r="D49">
         <v>84</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C49="NA",D49="NA"),0,(D49)/(C49^2))</f>
         <v>23.766410140334994</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f>E49-$E$5</f>
         <v>-9.5636555395003136</v>
       </c>
       <c r="H49" t="s">
@@ -4589,12 +4638,12 @@
         <v>72</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f>K49*365</f>
         <v>26280</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>19737</v>
+        <f ca="1">EDATE(TODAY(),-12*K49)</f>
+        <v>19739</v>
       </c>
       <c r="N49" t="s">
         <v>161</v>
@@ -4606,7 +4655,7 @@
         <v>51</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P49, FIND(",",P49)-1),P49)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -4618,22 +4667,22 @@
         <v>198</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f>B50/100</f>
         <v>1.98</v>
       </c>
       <c r="D50">
         <v>82</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C50="NA",D50="NA"),0,(D50)/(C50^2))</f>
         <v>20.91623303744516</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f>E50-$E$5</f>
         <v>-12.413832642390147</v>
       </c>
       <c r="H50" t="s">
@@ -4649,12 +4698,12 @@
         <v>92</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f>K50*365</f>
         <v>33580</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12432</v>
+        <f ca="1">EDATE(TODAY(),-12*K50)</f>
+        <v>12434</v>
       </c>
       <c r="N50" t="s">
         <v>163</v>
@@ -4666,7 +4715,7 @@
         <v>51</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P50, FIND(",",P50)-1),P50)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -4678,22 +4727,22 @@
         <v>196</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f>B51/100</f>
         <v>1.96</v>
       </c>
       <c r="D51">
         <v>87</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C51="NA",D51="NA"),0,(D51)/(C51^2))</f>
         <v>22.646813827571847</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f>E51-$E$5</f>
         <v>-10.68325185226346</v>
       </c>
       <c r="H51" t="s">
@@ -4724,7 +4773,7 @@
         <v>51</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P51, FIND(",",P51)-1),P51)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -4736,18 +4785,22 @@
         <v>171</v>
       </c>
       <c r="C52">
+        <f>B52/100</f>
+        <v>1.71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <f>IF(OR(C52="NA",D52="NA"),0,(D52)/(C52^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="0"/>
-        <v>1.71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f>E52-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H52" t="s">
@@ -4778,7 +4831,7 @@
         <v>170</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P52, FIND(",",P52)-1),P52)</f>
         <v xml:space="preserve">The Phantom Menace </v>
       </c>
     </row>
@@ -4790,22 +4843,22 @@
         <v>184</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f>B53/100</f>
         <v>1.84</v>
       </c>
       <c r="D53">
         <v>50</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C53="NA",D53="NA"),0,(D53)/(C53^2))</f>
         <v>14.768431001890358</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f>E53-$E$5</f>
         <v>-18.561634677944951</v>
       </c>
       <c r="H53" t="s">
@@ -4836,7 +4889,7 @@
         <v>170</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P53, FIND(",",P53)-1),P53)</f>
         <v xml:space="preserve">The Phantom Menace </v>
       </c>
     </row>
@@ -4848,18 +4901,22 @@
         <v>188</v>
       </c>
       <c r="C54">
+        <f>B54/100</f>
+        <v>1.88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <f>IF(OR(C54="NA",D54="NA"),0,(D54)/(C54^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="0"/>
-        <v>1.88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f>E54-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H54" t="s">
@@ -4890,7 +4947,7 @@
         <v>170</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P54, FIND(",",P54)-1),P54)</f>
         <v xml:space="preserve">The Phantom Menace </v>
       </c>
     </row>
@@ -4902,18 +4959,22 @@
         <v>264</v>
       </c>
       <c r="C55">
+        <f>B55/100</f>
+        <v>2.64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <f>IF(OR(C55="NA",D55="NA"),0,(D55)/(C55^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="0"/>
-        <v>2.64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f>E55-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H55" t="s">
@@ -4944,7 +5005,7 @@
         <v>117</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P55, FIND(",",P55)-1),P55)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4956,22 +5017,22 @@
         <v>188</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f>B56/100</f>
         <v>1.88</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C56="NA",D56="NA"),0,(D56)/(C56^2))</f>
         <v>22.634676324128566</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f>E56-$E$5</f>
         <v>-10.695389355706741</v>
       </c>
       <c r="H56" t="s">
@@ -4987,12 +5048,12 @@
         <v>22</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f>K56*365</f>
         <v>8030</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>37999</v>
+        <f ca="1">EDATE(TODAY(),-12*K56)</f>
+        <v>38001</v>
       </c>
       <c r="N56" t="s">
         <v>180</v>
@@ -5004,7 +5065,7 @@
         <v>51</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P56, FIND(",",P56)-1),P56)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5016,18 +5077,22 @@
         <v>196</v>
       </c>
       <c r="C57">
+        <f>B57/100</f>
+        <v>1.96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <f>IF(OR(C57="NA",D57="NA"),0,(D57)/(C57^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f>E57-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H57" t="s">
@@ -5058,7 +5123,7 @@
         <v>126</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P57, FIND(",",P57)-1),P57)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5070,22 +5135,22 @@
         <v>185</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f>B58/100</f>
         <v>1.85</v>
       </c>
       <c r="D58">
         <v>85</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C58="NA",D58="NA"),0,(D58)/(C58^2))</f>
         <v>24.835646457268076</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f>E58-$E$5</f>
         <v>-8.494419222567231</v>
       </c>
       <c r="H58" t="s">
@@ -5116,7 +5181,7 @@
         <v>186</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P58, FIND(",",P58)-1),P58)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5128,18 +5193,22 @@
         <v>157</v>
       </c>
       <c r="C59">
+        <f>B59/100</f>
+        <v>1.57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <f>IF(OR(C59="NA",D59="NA"),0,(D59)/(C59^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="0"/>
-        <v>1.57</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f>E59-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H59" t="s">
@@ -5170,7 +5239,7 @@
         <v>186</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P59, FIND(",",P59)-1),P59)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5182,18 +5251,22 @@
         <v>183</v>
       </c>
       <c r="C60">
+        <f>B60/100</f>
+        <v>1.83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <f>IF(OR(C60="NA",D60="NA"),0,(D60)/(C60^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="0"/>
-        <v>1.83</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
+        <f>E60-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H60" t="s">
@@ -5209,12 +5282,12 @@
         <v>82</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f>K60*365</f>
         <v>29930</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>16084</v>
+        <f ca="1">EDATE(TODAY(),-12*K60)</f>
+        <v>16086</v>
       </c>
       <c r="N60" t="s">
         <v>14</v>
@@ -5226,7 +5299,7 @@
         <v>186</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P60, FIND(",",P60)-1),P60)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5238,22 +5311,22 @@
         <v>183</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f>B61/100</f>
         <v>1.83</v>
       </c>
       <c r="D61">
         <v>80</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C61="NA",D61="NA"),0,(D61)/(C61^2))</f>
         <v>23.888440980620498</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f>E61-$E$5</f>
         <v>-9.4416246992148096</v>
       </c>
       <c r="H61" t="s">
@@ -5284,7 +5357,7 @@
         <v>192</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P61, FIND(",",P61)-1),P61)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5296,22 +5369,22 @@
         <v>170</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f>B62/100</f>
         <v>1.7</v>
       </c>
       <c r="D62">
         <v>56.2</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C62="NA",D62="NA"),0,(D62)/(C62^2))</f>
         <v>19.446366782006923</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f>E62-$E$5</f>
         <v>-13.883698897828385</v>
       </c>
       <c r="H62" t="s">
@@ -5327,12 +5400,12 @@
         <v>58</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f>K62*365</f>
         <v>21170</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>24850</v>
+        <f ca="1">EDATE(TODAY(),-12*K62)</f>
+        <v>24852</v>
       </c>
       <c r="N62" t="s">
         <v>194</v>
@@ -5344,7 +5417,7 @@
         <v>192</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P62, FIND(",",P62)-1),P62)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5356,22 +5429,22 @@
         <v>166</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f>B63/100</f>
         <v>1.66</v>
       </c>
       <c r="D63">
         <v>50</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C63="NA",D63="NA"),0,(D63)/(C63^2))</f>
         <v>18.144868631151112</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f>E63-$E$5</f>
         <v>-15.185197048684195</v>
       </c>
       <c r="H63" t="s">
@@ -5387,12 +5460,12 @@
         <v>40</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f>K63*365</f>
         <v>14600</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>31425</v>
+        <f ca="1">EDATE(TODAY(),-12*K63)</f>
+        <v>31427</v>
       </c>
       <c r="N63" t="s">
         <v>194</v>
@@ -5404,7 +5477,7 @@
         <v>186</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P63, FIND(",",P63)-1),P63)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5416,18 +5489,22 @@
         <v>165</v>
       </c>
       <c r="C64">
+        <f>B64/100</f>
+        <v>1.65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <f>IF(OR(C64="NA",D64="NA"),0,(D64)/(C64^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f>E64-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H64" t="s">
@@ -5458,7 +5535,7 @@
         <v>186</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P64, FIND(",",P64)-1),P64)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5470,22 +5547,22 @@
         <v>193</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f>B65/100</f>
         <v>1.93</v>
       </c>
       <c r="D65">
         <v>80</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C65="NA",D65="NA"),0,(D65)/(C65^2))</f>
         <v>21.477086633198208</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f>E65-$E$5</f>
         <v>-11.852979046637099</v>
       </c>
       <c r="H65" t="s">
@@ -5501,12 +5578,12 @@
         <v>102</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f>K65*365</f>
         <v>37230</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>8779</v>
+        <f ca="1">EDATE(TODAY(),-12*K65)</f>
+        <v>8781</v>
       </c>
       <c r="N65" t="s">
         <v>199</v>
@@ -5518,7 +5595,7 @@
         <v>192</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P65, FIND(",",P65)-1),P65)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5530,18 +5607,22 @@
         <v>191</v>
       </c>
       <c r="C66">
+        <f>B66/100</f>
+        <v>1.91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <f>IF(OR(C66="NA",D66="NA"),0,(D66)/(C66^2))</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="0"/>
-        <v>1.91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
+        <f>E66-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H66" t="s">
@@ -5557,12 +5638,12 @@
         <v>67</v>
       </c>
       <c r="L66">
-        <f t="shared" si="4"/>
+        <f>K66*365</f>
         <v>24455</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>21563</v>
+        <f ca="1">EDATE(TODAY(),-12*K66)</f>
+        <v>21565</v>
       </c>
       <c r="N66" t="s">
         <v>35</v>
@@ -5574,7 +5655,7 @@
         <v>192</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="6"/>
+        <f>IFERROR(LEFT(P66, FIND(",",P66)-1),P66)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -5586,22 +5667,22 @@
         <v>183</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C88" si="7">B67/100</f>
+        <f>B67/100</f>
         <v>1.83</v>
       </c>
       <c r="D67">
         <v>79</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E88" si="8">IF(OR(C67="NA",D67="NA"),0,(D67)/(C67^2))</f>
+        <f>IF(OR(C67="NA",D67="NA"),0,(D67)/(C67^2))</f>
         <v>23.589835468362743</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F88" si="9">RANK(E67,$E$2:$E$88)</f>
+        <f t="shared" ref="F67:F88" si="1">RANK(E67,$E$2:$E$88)</f>
         <v>37</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G88" si="10">E67-$E$5</f>
+        <f>E67-$E$5</f>
         <v>-9.7402302114725643</v>
       </c>
       <c r="H67" t="s">
@@ -5617,12 +5698,12 @@
         <v>66</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L88" si="11">K67*365</f>
+        <f>K67*365</f>
         <v>24090</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" ref="M67:M88" ca="1" si="12">EDATE(TODAY(),-12*K67)</f>
-        <v>21928</v>
+        <f ca="1">EDATE(TODAY(),-12*K67)</f>
+        <v>21930</v>
       </c>
       <c r="N67" t="s">
         <v>203</v>
@@ -5634,7 +5715,7 @@
         <v>186</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q88" si="13">IFERROR(LEFT(P67, FIND(",",P67)-1),P67)</f>
+        <f>IFERROR(LEFT(P67, FIND(",",P67)-1),P67)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5646,22 +5727,22 @@
         <v>168</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f>B68/100</f>
         <v>1.68</v>
       </c>
       <c r="D68">
         <v>55</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C68="NA",D68="NA"),0,(D68)/(C68^2))</f>
         <v>19.486961451247168</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
+        <f>E68-$E$5</f>
         <v>-13.843104228588139</v>
       </c>
       <c r="H68" t="s">
@@ -5692,7 +5773,7 @@
         <v>186</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P68, FIND(",",P68)-1),P68)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5704,22 +5785,22 @@
         <v>198</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f>B69/100</f>
         <v>1.98</v>
       </c>
       <c r="D69">
         <v>102</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C69="NA",D69="NA"),0,(D69)/(C69^2))</f>
         <v>26.017753290480563</v>
       </c>
       <c r="F69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f>E69-$E$5</f>
         <v>-7.3123123893547444</v>
       </c>
       <c r="H69" t="s">
@@ -5750,7 +5831,7 @@
         <v>186</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P69, FIND(",",P69)-1),P69)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5762,22 +5843,22 @@
         <v>229</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f>B70/100</f>
         <v>2.29</v>
       </c>
       <c r="D70">
         <v>88</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C70="NA",D70="NA"),0,(D70)/(C70^2))</f>
         <v>16.780763143342039</v>
       </c>
       <c r="F70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f>E70-$E$5</f>
         <v>-16.549302536493268</v>
       </c>
       <c r="H70" t="s">
@@ -5808,7 +5889,7 @@
         <v>186</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P70, FIND(",",P70)-1),P70)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5820,18 +5901,22 @@
         <v>213</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f>B71/100</f>
         <v>2.13</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C71="NA",D71="NA"),0,(D71)/(C71^2))</f>
         <v>0</v>
       </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f>E71-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H71" t="s">
@@ -5862,7 +5947,7 @@
         <v>186</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P71, FIND(",",P71)-1),P71)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5874,18 +5959,22 @@
         <v>167</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f>B72/100</f>
         <v>1.67</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C72="NA",D72="NA"),0,(D72)/(C72^2))</f>
         <v>0</v>
       </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f>E72-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H72" t="s">
@@ -5916,7 +6005,7 @@
         <v>186</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P72, FIND(",",P72)-1),P72)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5928,22 +6017,22 @@
         <v>79</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f>B73/100</f>
         <v>0.79</v>
       </c>
       <c r="D73">
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C73="NA",D73="NA"),0,(D73)/(C73^2))</f>
         <v>24.034609838166958</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
+        <f>E73-$E$5</f>
         <v>-9.2954558416683497</v>
       </c>
       <c r="H73" t="s">
@@ -5974,7 +6063,7 @@
         <v>117</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P73, FIND(",",P73)-1),P73)</f>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -5986,18 +6075,22 @@
         <v>96</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f>B74/100</f>
         <v>0.96</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C74="NA",D74="NA"),0,(D74)/(C74^2))</f>
         <v>0</v>
       </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f>E74-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H74" t="s">
@@ -6028,7 +6121,7 @@
         <v>192</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P74, FIND(",",P74)-1),P74)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -6040,22 +6133,22 @@
         <v>193</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f>B75/100</f>
         <v>1.93</v>
       </c>
       <c r="D75">
         <v>48</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C75="NA",D75="NA"),0,(D75)/(C75^2))</f>
         <v>12.886251979918924</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f>E75-$E$5</f>
         <v>-20.443813699916383</v>
       </c>
       <c r="H75" t="s">
@@ -6086,7 +6179,7 @@
         <v>186</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P75, FIND(",",P75)-1),P75)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6098,18 +6191,22 @@
         <v>191</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f>B76/100</f>
         <v>1.91</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C76="NA",D76="NA"),0,(D76)/(C76^2))</f>
         <v>0</v>
       </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G76">
-        <f t="shared" si="10"/>
+        <f>E76-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H76" t="s">
@@ -6140,7 +6237,7 @@
         <v>186</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P76, FIND(",",P76)-1),P76)</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6152,22 +6249,22 @@
         <v>178</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f>B77/100</f>
         <v>1.78</v>
       </c>
       <c r="D77">
         <v>57</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C77="NA",D77="NA"),0,(D77)/(C77^2))</f>
         <v>17.99015275849009</v>
       </c>
       <c r="F77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="G77">
-        <f t="shared" si="10"/>
+        <f>E77-$E$5</f>
         <v>-15.339912921345217</v>
       </c>
       <c r="H77" t="s">
@@ -6198,7 +6295,7 @@
         <v>192</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P77, FIND(",",P77)-1),P77)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -6210,22 +6307,22 @@
         <v>216</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f>B78/100</f>
         <v>2.16</v>
       </c>
       <c r="D78">
         <v>159</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C78="NA",D78="NA"),0,(D78)/(C78^2))</f>
         <v>34.079218106995881</v>
       </c>
       <c r="F78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
+        <f>E78-$E$5</f>
         <v>0.74915242716057406</v>
       </c>
       <c r="H78" t="s">
@@ -6256,7 +6353,7 @@
         <v>239</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P78, FIND(",",P78)-1),P78)</f>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -6268,22 +6365,22 @@
         <v>234</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f>B79/100</f>
         <v>2.34</v>
       </c>
       <c r="D79">
         <v>136</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C79="NA",D79="NA"),0,(D79)/(C79^2))</f>
         <v>24.837460734896638</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
+        <f>E79-$E$5</f>
         <v>-8.4926049449386696</v>
       </c>
       <c r="H79" t="s">
@@ -6314,7 +6411,7 @@
         <v>239</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P79, FIND(",",P79)-1),P79)</f>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -6326,22 +6423,22 @@
         <v>188</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f>B80/100</f>
         <v>1.88</v>
       </c>
       <c r="D80">
         <v>79</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C80="NA",D80="NA"),0,(D80)/(C80^2))</f>
         <v>22.351742870076958</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f>E80-$E$5</f>
         <v>-10.97832280975835</v>
       </c>
       <c r="H80" t="s">
@@ -6372,7 +6469,7 @@
         <v>55</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P80, FIND(",",P80)-1),P80)</f>
         <v xml:space="preserve">Revenge of the Sith </v>
       </c>
     </row>
@@ -6384,22 +6481,22 @@
         <v>178</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
+        <f>B81/100</f>
         <v>1.78</v>
       </c>
       <c r="D81">
         <v>48</v>
       </c>
       <c r="E81">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C81="NA",D81="NA"),0,(D81)/(C81^2))</f>
         <v>15.149602322939023</v>
       </c>
       <c r="F81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f>E81-$E$5</f>
         <v>-18.180463356896283</v>
       </c>
       <c r="H81" t="s">
@@ -6430,7 +6527,7 @@
         <v>192</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P81, FIND(",",P81)-1),P81)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
@@ -6442,22 +6539,22 @@
         <v>206</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
+        <f>B82/100</f>
         <v>2.06</v>
       </c>
       <c r="D82">
         <v>80</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C82="NA",D82="NA"),0,(D82)/(C82^2))</f>
         <v>18.851918182675089</v>
       </c>
       <c r="F82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f>E82-$E$5</f>
         <v>-14.478147497160219</v>
       </c>
       <c r="H82" t="s">
@@ -6488,7 +6585,7 @@
         <v>239</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P82, FIND(",",P82)-1),P82)</f>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -6503,11 +6600,15 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C83="NA",D83="NA"),0,(D83)/(C83^2))</f>
         <v>0</v>
       </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f>E83-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H83" t="s">
@@ -6538,7 +6639,7 @@
         <v>248</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P83, FIND(",",P83)-1),P83)</f>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -6553,11 +6654,15 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C84="NA",D84="NA"),0,(D84)/(C84^2))</f>
         <v>0</v>
       </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f>E84-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H84" t="s">
@@ -6588,7 +6693,7 @@
         <v>248</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P84, FIND(",",P84)-1),P84)</f>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -6603,11 +6708,15 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C85="NA",D85="NA"),0,(D85)/(C85^2))</f>
         <v>0</v>
       </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f>E85-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H85" t="s">
@@ -6638,7 +6747,7 @@
         <v>248</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P85, FIND(",",P85)-1),P85)</f>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -6653,11 +6762,15 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C86="NA",D86="NA"),0,(D86)/(C86^2))</f>
         <v>0</v>
       </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G86">
-        <f t="shared" si="10"/>
+        <f>E86-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H86" t="s">
@@ -6688,7 +6801,7 @@
         <v>248</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P86, FIND(",",P86)-1),P86)</f>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -6703,11 +6816,15 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C87="NA",D87="NA"),0,(D87)/(C87^2))</f>
         <v>0</v>
       </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
       <c r="G87">
-        <f t="shared" si="10"/>
+        <f>E87-$E$5</f>
         <v>-33.330065679835307</v>
       </c>
       <c r="H87" t="s">
@@ -6738,7 +6855,7 @@
         <v>248</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P87, FIND(",",P87)-1),P87)</f>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -6750,22 +6867,22 @@
         <v>165</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
+        <f>B88/100</f>
         <v>1.65</v>
       </c>
       <c r="D88">
         <v>45</v>
       </c>
       <c r="E88">
-        <f t="shared" si="8"/>
+        <f>IF(OR(C88="NA",D88="NA"),0,(D88)/(C88^2))</f>
         <v>16.528925619834713</v>
       </c>
       <c r="F88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="G88">
-        <f t="shared" si="10"/>
+        <f>E88-$E$5</f>
         <v>-16.801140060000595</v>
       </c>
       <c r="H88" t="s">
@@ -6781,12 +6898,12 @@
         <v>46</v>
       </c>
       <c r="L88">
-        <f t="shared" si="11"/>
+        <f>K88*365</f>
         <v>16790</v>
       </c>
       <c r="M88" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>29233</v>
+        <f ca="1">EDATE(TODAY(),-12*K88)</f>
+        <v>29235</v>
       </c>
       <c r="N88" t="s">
         <v>26</v>
@@ -6798,11 +6915,12 @@
         <v>51</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="13"/>
+        <f>IFERROR(LEFT(P88, FIND(",",P88)-1),P88)</f>
         <v xml:space="preserve">Attack of the Clones </v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6911,7 +7029,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
